--- a/simplepower/models/grid_model_data/grid_data2.xlsx
+++ b/simplepower/models/grid_model_data/grid_data2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uisn-my.sharepoint.com/personal/emelf_usn_no/Documents/PhD - SysOpt/Python Work/Custom Modules/simplepower/simplepower/models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uisn-my.sharepoint.com/personal/emelf_usn_no/Documents/PhD - SysOpt/Python Work/Custom Modules/simplepower/simplepower/models/grid_model_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="109" documentId="8_{76AC49D0-40D7-45F9-8AB9-9B675F322E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0171903-864F-4685-86A9-73E2AD8D57A4}"/>
+  <xr:revisionPtr revIDLastSave="118" documentId="8_{76AC49D0-40D7-45F9-8AB9-9B675F322E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC9AD8D4-8282-44B1-9F91-FC54227ECCFA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{120A7045-FD09-44EC-B7BA-2F1FCE4B68C8}"/>
+    <workbookView xWindow="2985" yWindow="2010" windowWidth="21600" windowHeight="11295" activeTab="4" xr2:uid="{120A7045-FD09-44EC-B7BA-2F1FCE4B68C8}"/>
   </bookViews>
   <sheets>
     <sheet name="busbars" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
   <si>
     <t>name</t>
   </si>
@@ -139,6 +139,36 @@
   </si>
   <si>
     <t>is_pu</t>
+  </si>
+  <si>
+    <t>s_base_mva</t>
+  </si>
+  <si>
+    <t>g_shunt_pu</t>
+  </si>
+  <si>
+    <t>b_shunt_pu</t>
+  </si>
+  <si>
+    <t>idx_hv</t>
+  </si>
+  <si>
+    <t>idx_lv</t>
+  </si>
+  <si>
+    <t>tap_pos</t>
+  </si>
+  <si>
+    <t>tap_change</t>
+  </si>
+  <si>
+    <t>tap_min</t>
+  </si>
+  <si>
+    <t>tap_max</t>
+  </si>
+  <si>
+    <t>v_base_kV</t>
   </si>
 </sst>
 </file>
@@ -488,7 +518,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -562,7 +592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F24F74-C913-4254-AF10-9102B3F26C94}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
@@ -698,10 +728,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBF97191-B8C8-4B12-8921-F601069D1D4E}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,38 +739,62 @@
     <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
         <v>10</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>10</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>2</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -825,15 +879,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E92C15A9-E0D3-48E6-90F6-6A9120B37C7B}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -847,16 +901,37 @@
         <v>27</v>
       </c>
       <c r="E1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" t="s">
         <v>28</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>29</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>30</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>31</v>
+      </c>
+      <c r="J1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O1" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/simplepower/models/grid_model_data/grid_data2.xlsx
+++ b/simplepower/models/grid_model_data/grid_data2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uisn-my.sharepoint.com/personal/emelf_usn_no/Documents/PhD - SysOpt/Python Work/Custom Modules/simplepower/simplepower/models/grid_model_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="118" documentId="8_{76AC49D0-40D7-45F9-8AB9-9B675F322E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC9AD8D4-8282-44B1-9F91-FC54227ECCFA}"/>
+  <xr:revisionPtr revIDLastSave="124" documentId="8_{76AC49D0-40D7-45F9-8AB9-9B675F322E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7DF3203C-90B3-471A-A43E-1D28C8B80CC5}"/>
   <bookViews>
-    <workbookView xWindow="2985" yWindow="2010" windowWidth="21600" windowHeight="11295" activeTab="4" xr2:uid="{120A7045-FD09-44EC-B7BA-2F1FCE4B68C8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{120A7045-FD09-44EC-B7BA-2F1FCE4B68C8}"/>
   </bookViews>
   <sheets>
     <sheet name="busbars" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
   <si>
     <t>name</t>
   </si>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t>v_base_kV</t>
+  </si>
+  <si>
+    <t>I_lim_A</t>
   </si>
 </sst>
 </file>
@@ -204,10 +207,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -518,7 +520,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -590,10 +592,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F24F74-C913-4254-AF10-9102B3F26C94}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,7 +607,7 @@
     <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -613,28 +615,31 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -642,28 +647,31 @@
         <v>22</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
         <v>4</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -671,28 +679,31 @@
         <v>22</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
         <v>4</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
         <v>2</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -700,24 +711,27 @@
         <v>22</v>
       </c>
       <c r="C4">
+        <v>1000</v>
+      </c>
+      <c r="D4">
         <v>2</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
       <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
         <v>4</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
         <v>2</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0</v>
       </c>
     </row>
@@ -859,7 +873,7 @@
       <c r="B3">
         <v>20</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3">
         <v>1.05</v>
       </c>
       <c r="D3">
@@ -881,7 +895,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E92C15A9-E0D3-48E6-90F6-6A9120B37C7B}">
   <dimension ref="A1:O1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
